--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Orange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13567E09-52A0-47C6-88C7-D2F7EC0679DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79907E25-6A70-4A8F-A085-B2664F967030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,20 +361,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
